--- a/NOG TE DOEN VOOR MORGEN 11 UUR - IDEA PUNTEN.xlsx
+++ b/NOG TE DOEN VOOR MORGEN 11 UUR - IDEA PUNTEN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db9e4f8f00016419/Documenten/GitHub/zeuristieken/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobbo\OneDrive\Documenten\GitHub\zeuristieken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="57DBB903650DE43C1D235127E7E98C95D3D850CD" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{99BCD905-5EAE-4EDE-8BF5-EE432EE3498D}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="57DBB903650DE43C1D235127E7E98C95D3D850CD" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{75E5AEFD-499F-469E-A606-B39CA1266FE5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{2D35BE66-9745-4EF4-B01A-1CA2638411F1}"/>
   </bookViews>
@@ -635,13 +635,13 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/NOG TE DOEN VOOR MORGEN 11 UUR - IDEA PUNTEN.xlsx
+++ b/NOG TE DOEN VOOR MORGEN 11 UUR - IDEA PUNTEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobbo\OneDrive\Documenten\GitHub\zeuristieken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="57DBB903650DE43C1D235127E7E98C95D3D850CD" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{75E5AEFD-499F-469E-A606-B39CA1266FE5}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="57DBB903650DE43C1D235127E7E98C95D3D850CD" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{D6E62CF8-B000-438A-9B6E-8A071C9AB5C3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{2D35BE66-9745-4EF4-B01A-1CA2638411F1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>READ ME MAKEN</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>hopelijk nieuw aantal punten</t>
+  </si>
+  <si>
+    <t>bullet points &gt; network x , alle in parte files, functie voor data laden, welk argument voor welke file, welke algorime je wilt aanroepen</t>
+  </si>
+  <si>
+    <t>greedy eisen</t>
+  </si>
+  <si>
+    <t>SVEN</t>
+  </si>
+  <si>
+    <t>experimentie upper , lower bount</t>
+  </si>
+  <si>
+    <t>Stephan</t>
   </si>
 </sst>
 </file>
@@ -114,12 +129,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,9 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,16 +194,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>418542</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>37170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433468</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112244</xdr:rowOff>
+      <xdr:colOff>71053</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -190,8 +226,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4259580" y="0"/>
-          <a:ext cx="6971428" cy="1209524"/>
+          <a:off x="9794859" y="223024"/>
+          <a:ext cx="7012316" cy="1227366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -299,7 +335,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>258256</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>1809</xdr:rowOff>
+      <xdr:rowOff>1808</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -632,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B619ABED-BCC6-40B1-B9D3-BC9211D078CD}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:XFD1048576"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +681,7 @@
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -656,96 +692,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -753,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -823,8 +887,8 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <f>D7+B18</f>
-        <v>3</v>
+        <f>D7+B18+1</f>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -833,7 +897,7 @@
       </c>
       <c r="B30">
         <f>(SUM(B25:B28)/20)*10</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/NOG TE DOEN VOOR MORGEN 11 UUR - IDEA PUNTEN.xlsx
+++ b/NOG TE DOEN VOOR MORGEN 11 UUR - IDEA PUNTEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobbo\OneDrive\Documenten\GitHub\zeuristieken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="57DBB903650DE43C1D235127E7E98C95D3D850CD" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{D6E62CF8-B000-438A-9B6E-8A071C9AB5C3}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="57DBB903650DE43C1D235127E7E98C95D3D850CD" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{75E5AEFD-499F-469E-A606-B39CA1266FE5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{2D35BE66-9745-4EF4-B01A-1CA2638411F1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>READ ME MAKEN</t>
   </si>
@@ -91,21 +91,6 @@
   </si>
   <si>
     <t>hopelijk nieuw aantal punten</t>
-  </si>
-  <si>
-    <t>bullet points &gt; network x , alle in parte files, functie voor data laden, welk argument voor welke file, welke algorime je wilt aanroepen</t>
-  </si>
-  <si>
-    <t>greedy eisen</t>
-  </si>
-  <si>
-    <t>SVEN</t>
-  </si>
-  <si>
-    <t>experimentie upper , lower bount</t>
-  </si>
-  <si>
-    <t>Stephan</t>
   </si>
 </sst>
 </file>
@@ -129,30 +114,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,12 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,16 +158,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>418542</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>37170</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>71053</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>149414</xdr:rowOff>
+      <xdr:colOff>433468</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -226,8 +190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9794859" y="223024"/>
-          <a:ext cx="7012316" cy="1227366"/>
+          <a:off x="4259580" y="0"/>
+          <a:ext cx="6971428" cy="1209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -335,7 +299,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>258256</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>1808</xdr:rowOff>
+      <xdr:rowOff>1809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -668,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B619ABED-BCC6-40B1-B9D3-BC9211D078CD}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +645,7 @@
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -692,124 +656,96 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -817,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -887,8 +823,8 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <f>D7+B18+1</f>
-        <v>4</v>
+        <f>D7+B18</f>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -897,7 +833,7 @@
       </c>
       <c r="B30">
         <f>(SUM(B25:B28)/20)*10</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
